--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2327400.508334641</v>
+        <v>2325143.486425558</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>120.0321124540375</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>390.7529822392023</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>82.92375604299515</v>
       </c>
       <c r="I4" t="n">
-        <v>6.908481403325515</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>383.1210607601529</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,7 +950,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>227.8177957661531</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>36.1772240484768</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>190.2713935802969</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>13.15972490571568</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>126.7477612906596</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>41.03250833502995</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>14.48345164522479</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>74.75769145492352</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>114.4746605491556</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
         <v>18.81721868247745</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>57.22579106484352</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>109.7472660450985</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634817</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>161.3529630655221</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>10.40839188246014</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,7 +2175,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
         <v>18.81721868247745</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2245,7 +2245,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2293,13 +2293,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>154.8522466658019</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>116.3127963634631</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>90.41948680756596</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2533,16 +2533,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>133.7117411111162</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2767,19 +2767,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>65.92009399575423</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>188.959318856295</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>125.8002580055427</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>46.81382800565908</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004736</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>53.18823704331163</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>88.23797643592228</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3244,7 +3244,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3281,7 +3281,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>164.6532255566634</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3497056946472598</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>144.3647927345256</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706228</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259154</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164191</v>
+        <v>87.87589738164166</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430365</v>
+        <v>188.7127700430362</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877638</v>
+        <v>218.4926939877635</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172074</v>
+        <v>285.1555829172072</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354226</v>
+        <v>251.0813880354223</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481855</v>
+        <v>285.4667430481853</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006317</v>
+        <v>224.6534001006315</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124525</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3727,7 +3727,7 @@
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335024</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572804</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T46" t="n">
         <v>172.5738126575766</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554.3221432721089</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>554.3221432721089</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>196.0564446653584</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>929.3036598490722</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>940.9219833362306</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="E4" t="n">
-        <v>580.2158906240411</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="F4" t="n">
-        <v>433.3259431261307</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="G4" t="n">
-        <v>264.3261428644631</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="H4" t="n">
-        <v>106.5777702969933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>137.7043515607636</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1299.526533804879</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="C5" t="n">
-        <v>1299.526533804879</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>1167.840328908816</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>782.0520763105717</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2017.189261212572</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V5" t="n">
-        <v>1686.126373869001</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1686.126373869001</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>1686.126373869001</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y5" t="n">
-        <v>1686.126373869001</v>
+        <v>1526.106027515566</v>
       </c>
     </row>
     <row r="6">
@@ -4641,22 +4641,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>662.1694145060392</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>662.1694145060392</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T7" t="n">
-        <v>662.1694145060392</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U7" t="n">
-        <v>372.9958041606071</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="V7" t="n">
-        <v>372.9958041606071</v>
+        <v>246.1363086691492</v>
       </c>
       <c r="W7" t="n">
-        <v>372.9958041606071</v>
+        <v>246.1363086691492</v>
       </c>
       <c r="X7" t="n">
-        <v>372.9958041606071</v>
+        <v>246.1363086691492</v>
       </c>
       <c r="Y7" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.175505447095</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C8" t="n">
-        <v>825.2129885066831</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>466.9472898999326</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>81.15903730168839</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>1766.511549857098</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511217</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="9">
@@ -4878,13 +4878,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
         <v>670.8219208598713</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>323.257219162842</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>323.257219162842</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>68.57273095695516</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5021,43 +5021,43 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2642.582663047919</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188666</v>
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5121,49 +5121,49 @@
         <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998323</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998323</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998323</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5203,10 +5203,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
         <v>1346.796070598116</v>
@@ -5227,22 +5227,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W13" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X13" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998324</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5279,19 +5279,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>901.0652231938168</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1352.099436442225</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M14" t="n">
-        <v>2330.649739272054</v>
+        <v>2649.230460361821</v>
       </c>
       <c r="N14" t="n">
-        <v>2877.428556330836</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5306,7 +5306,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604875</v>
@@ -5331,13 +5331,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E15" t="n">
         <v>487.9678785494859</v>
@@ -5355,28 +5355,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>470.2141403171222</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C16" t="n">
-        <v>301.2779573892153</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D16" t="n">
-        <v>301.2779573892153</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E16" t="n">
-        <v>153.3648638068222</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
         <v>95.56103444839442</v>
@@ -5434,13 +5434,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1644.746393431757</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1644.746393431757</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V16" t="n">
-        <v>1390.06190522587</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W16" t="n">
-        <v>1100.644735188909</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X16" t="n">
-        <v>872.6551842908921</v>
+        <v>673.3827746590084</v>
       </c>
       <c r="Y16" t="n">
-        <v>651.8626051473619</v>
+        <v>562.5269503710301</v>
       </c>
     </row>
     <row r="17">
@@ -5516,25 +5516,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1898.858917622688</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4411.329534748787</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4659.615896504469</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5543,16 +5543,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5613,7 +5613,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5622,22 +5622,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>540.4807149410336</v>
+        <v>539.8079542252655</v>
       </c>
       <c r="C19" t="n">
-        <v>540.4807149410336</v>
+        <v>539.8079542252655</v>
       </c>
       <c r="D19" t="n">
-        <v>390.3640755286979</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5674,19 +5674,19 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
@@ -5701,22 +5701,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1601.674790956255</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1312.571924081898</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V19" t="n">
-        <v>1057.887435876012</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="W19" t="n">
-        <v>768.470265839051</v>
+        <v>988.5900842668129</v>
       </c>
       <c r="X19" t="n">
-        <v>540.4807149410336</v>
+        <v>760.6005333687956</v>
       </c>
       <c r="Y19" t="n">
-        <v>540.4807149410336</v>
+        <v>539.8079542252655</v>
       </c>
     </row>
     <row r="20">
@@ -5729,67 +5729,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>836.0059675195635</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364128</v>
+        <v>1287.040180767972</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420603</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5829,13 +5829,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>393.5907674431232</v>
+        <v>343.003351042385</v>
       </c>
       <c r="C22" t="n">
-        <v>393.5907674431232</v>
+        <v>343.0033510423849</v>
       </c>
       <c r="D22" t="n">
-        <v>243.4741280307875</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1386.474555727518</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1131.790067521631</v>
+        <v>909.2731541783398</v>
       </c>
       <c r="W22" t="n">
-        <v>842.3728974846707</v>
+        <v>791.7854810839325</v>
       </c>
       <c r="X22" t="n">
-        <v>614.3833465866534</v>
+        <v>563.7959301859152</v>
       </c>
       <c r="Y22" t="n">
-        <v>393.5907674431232</v>
+        <v>343.003351042385</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>351.301436796792</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>685.1208104866384</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1549.639626139993</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M23" t="n">
-        <v>2528.189928969822</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N23" t="n">
-        <v>3507.942201196468</v>
+        <v>3163.468180669545</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075805</v>
+        <v>3666.440651548882</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>481.6968904858352</v>
+        <v>580.1131475839755</v>
       </c>
       <c r="C25" t="n">
-        <v>390.3640755286979</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="D25" t="n">
-        <v>390.3640755286979</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6148,49 +6148,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927019</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518528</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.7880996267</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208131</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838525</v>
+        <v>1028.895277625523</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858352</v>
+        <v>800.9057267275057</v>
       </c>
       <c r="Y25" t="n">
-        <v>481.6968904858352</v>
+        <v>580.1131475839755</v>
       </c>
     </row>
     <row r="26">
@@ -6203,25 +6203,25 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
@@ -6230,40 +6230,40 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193956</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420603</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
         <v>3150.95552873011</v>
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6336,7 +6336,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>825.859557377715</v>
+        <v>393.5907674431234</v>
       </c>
       <c r="C28" t="n">
-        <v>656.9233744498081</v>
+        <v>393.5907674431234</v>
       </c>
       <c r="D28" t="n">
-        <v>506.8067350374723</v>
+        <v>243.4741280307876</v>
       </c>
       <c r="E28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839448</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
@@ -6406,7 +6406,7 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
         <v>1674.827124689058</v>
@@ -6415,19 +6415,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1453.060509258584</v>
+        <v>1386.474555727518</v>
       </c>
       <c r="V28" t="n">
-        <v>1198.376021052697</v>
+        <v>1131.790067521631</v>
       </c>
       <c r="W28" t="n">
-        <v>1198.376021052697</v>
+        <v>842.3728974846708</v>
       </c>
       <c r="X28" t="n">
-        <v>1198.376021052697</v>
+        <v>614.3833465866535</v>
       </c>
       <c r="Y28" t="n">
-        <v>1007.508022207955</v>
+        <v>393.5907674431234</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551614</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>451.8458144277729</v>
@@ -6476,37 +6476,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
         <v>2436.460902902952</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>488.8938622403219</v>
+        <v>439.1815555980838</v>
       </c>
       <c r="C31" t="n">
-        <v>319.9576793124151</v>
+        <v>439.1815555980837</v>
       </c>
       <c r="D31" t="n">
-        <v>319.9576793124151</v>
+        <v>289.064916185748</v>
       </c>
       <c r="E31" t="n">
-        <v>319.9576793124151</v>
+        <v>289.064916185748</v>
       </c>
       <c r="F31" t="n">
-        <v>319.9576793124152</v>
+        <v>289.0649161857478</v>
       </c>
       <c r="G31" t="n">
-        <v>319.9576793124152</v>
+        <v>289.0649161857478</v>
       </c>
       <c r="H31" t="n">
-        <v>192.886711630049</v>
+        <v>142.8477294036056</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>841.6225995718537</v>
       </c>
       <c r="X31" t="n">
-        <v>709.6864413838521</v>
+        <v>841.6225995718537</v>
       </c>
       <c r="Y31" t="n">
-        <v>488.8938622403219</v>
+        <v>620.8300204283236</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6701,19 +6701,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L32" t="n">
-        <v>1898.858917622688</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M32" t="n">
-        <v>2432.390822294613</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353395</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P32" t="n">
         <v>4195.497197679678</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>481.6968904858345</v>
+        <v>464.9024566190096</v>
       </c>
       <c r="C34" t="n">
-        <v>481.6968904858345</v>
+        <v>411.1769646560686</v>
       </c>
       <c r="D34" t="n">
-        <v>331.5802510734987</v>
+        <v>411.1769646560686</v>
       </c>
       <c r="E34" t="n">
-        <v>331.5802510734987</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F34" t="n">
-        <v>184.6903035755884</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
-        <v>184.6903035755884</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>184.6903035755884</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6871,7 +6871,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208124</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838518</v>
+        <v>874.5404723472667</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858345</v>
+        <v>646.5509214492494</v>
       </c>
       <c r="Y34" t="n">
-        <v>481.6968904858345</v>
+        <v>646.5509214492494</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6935,25 +6935,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1299.085123758012</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>1832.617028429936</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6965,16 +6965,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6990,64 +6990,64 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089896</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>407.7004468637333</v>
+        <v>241.3840574125617</v>
       </c>
       <c r="C37" t="n">
-        <v>407.7004468637333</v>
+        <v>241.3840574125617</v>
       </c>
       <c r="D37" t="n">
-        <v>407.347208788332</v>
+        <v>241.3840574125617</v>
       </c>
       <c r="E37" t="n">
-        <v>407.347208788332</v>
+        <v>241.3840574125617</v>
       </c>
       <c r="F37" t="n">
-        <v>407.347208788332</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>240.7112966967938</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7093,52 +7093,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308513</v>
+        <v>141.7293596308516</v>
       </c>
       <c r="K37" t="n">
-        <v>346.762235315249</v>
+        <v>346.7622353152495</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992664</v>
+        <v>664.3677264992673</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.570464834337</v>
+        <v>1009.570464834338</v>
       </c>
       <c r="N37" t="n">
-        <v>1352.024534275723</v>
+        <v>1352.024534275724</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931657</v>
+        <v>1652.399825931659</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.053019100838</v>
+        <v>1886.05301910084</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988874</v>
+        <v>1964.709007988876</v>
       </c>
       <c r="R37" t="n">
-        <v>1875.945475280145</v>
+        <v>1875.945475280147</v>
       </c>
       <c r="S37" t="n">
-        <v>1685.326515640714</v>
+        <v>1685.326515640716</v>
       </c>
       <c r="T37" t="n">
-        <v>1464.626824743983</v>
+        <v>1464.626824743986</v>
       </c>
       <c r="U37" t="n">
-        <v>1176.59088240337</v>
+        <v>1176.590882403372</v>
       </c>
       <c r="V37" t="n">
-        <v>922.9733187312255</v>
+        <v>922.9733187312286</v>
       </c>
       <c r="W37" t="n">
-        <v>634.6230732280078</v>
+        <v>634.6230732280111</v>
       </c>
       <c r="X37" t="n">
-        <v>407.7004468637333</v>
+        <v>407.7004468637368</v>
       </c>
       <c r="Y37" t="n">
-        <v>407.7004468637333</v>
+        <v>407.7004468637368</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7211,7 +7211,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7251,10 +7251,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
         <v>794.2006632320247</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215052</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416713</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774092</v>
+        <v>564.361611377409</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430892</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932521</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160444</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819755</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7333,10 +7333,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499222</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7354,28 +7354,28 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S40" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V40" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,19 +7409,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483405</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542187</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7436,19 +7436,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
         <v>794.200663232024</v>
@@ -7503,25 +7503,25 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416717</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430897</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932527</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160445</v>
       </c>
       <c r="H43" t="n">
         <v>145.4370786819758</v>
@@ -7570,10 +7570,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490194</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499222</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7588,19 +7588,19 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
         <v>1518.56440093796</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036717</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,25 +7646,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483405</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542187</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q44" t="n">
         <v>4653.975400188666</v>
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390123</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
         <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7746,7 +7746,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7755,16 +7755,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
         <v>1346.568408282342</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215052</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416713</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774088</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430894</v>
+        <v>463.898150743089</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932524</v>
+        <v>364.457836193252</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160445</v>
       </c>
       <c r="H46" t="n">
         <v>145.4370786819758</v>
@@ -7804,13 +7804,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7825,7 +7825,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
@@ -7843,13 +7843,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,7 +8219,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>308.4529749292122</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8927,13 +8927,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>285.6623071682329</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>315.167921710932</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,16 +9164,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9182,10 +9182,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>60.01894884691895</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>50.84927212317581</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277304</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>67.53663776704252</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>201.3549853008785</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,25 +9878,25 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>420.2833968404719</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,22 +10349,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>135.6385654278962</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>232.1124963760977</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -11057,22 +11057,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>64.28566532692543</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,13 +11309,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>249.451501837949</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23431,7 +23431,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>69.99732345939726</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>88.19525695808773</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23671,7 +23671,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>108.8373873069963</v>
       </c>
     </row>
     <row r="17">
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>58.19598621064711</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.1146064541309</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>131.3595915398109</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>170.2102019731279</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>76.82733429106187</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>152.8112572254748</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>220.2917442098587</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.62533449579982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H31" t="n">
-        <v>18.95475690877804</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>49.53859240417906</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>114.0585840553162</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>8.114443973915812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935319</v>
+        <v>14.12249933686827</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102224</v>
+        <v>166.1905658102222</v>
       </c>
       <c r="D37" t="n">
-        <v>147.2095120351597</v>
+        <v>147.5592177298067</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581637</v>
+        <v>145.3777073581635</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345258</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.9695529706225</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>143.6987596259151</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143267</v>
+        <v>95.29616512143241</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636894</v>
+        <v>217.5283980636891</v>
       </c>
     </row>
     <row r="38">
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>3.126388037344441e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>-1.989519660128281e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>831373.2415078256</v>
+        <v>831373.2415078257</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>831373.2415078256</v>
+        <v>831373.2415078257</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>831373.2415078256</v>
+        <v>831373.2415078257</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>831992.7179963891</v>
+        <v>831992.7179963893</v>
       </c>
     </row>
     <row r="14">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="E2" t="n">
         <v>575768.5909861258</v>
       </c>
       <c r="F2" t="n">
-        <v>575768.5909861254</v>
+        <v>575768.5909861253</v>
       </c>
       <c r="G2" t="n">
         <v>575768.5909861258</v>
       </c>
       <c r="H2" t="n">
+        <v>575768.5909861254</v>
+      </c>
+      <c r="I2" t="n">
+        <v>575768.5909861256</v>
+      </c>
+      <c r="J2" t="n">
         <v>575768.5909861255</v>
-      </c>
-      <c r="I2" t="n">
-        <v>575768.5909861258</v>
-      </c>
-      <c r="J2" t="n">
-        <v>575768.5909861256</v>
       </c>
       <c r="K2" t="n">
         <v>575768.5909861258</v>
       </c>
       <c r="L2" t="n">
-        <v>575768.5909861259</v>
+        <v>575768.5909861256</v>
       </c>
       <c r="M2" t="n">
-        <v>576206.7572829146</v>
+        <v>576206.7572829147</v>
       </c>
       <c r="N2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="O2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="P2" t="n">
         <v>595255.2831516053</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696691</v>
+        <v>130487.3190696693</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414972</v>
+        <v>36735.10506414949</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918988</v>
       </c>
       <c r="H4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="J4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="J4" t="n">
-        <v>18148.49231918995</v>
-      </c>
       <c r="K4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="L4" t="n">
         <v>18148.49231918993</v>
       </c>
-      <c r="L4" t="n">
-        <v>18148.49231918994</v>
-      </c>
       <c r="M4" t="n">
-        <v>18496.05294811451</v>
+        <v>18496.05294811462</v>
       </c>
       <c r="N4" t="n">
+        <v>33605.65329740898</v>
+      </c>
+      <c r="O4" t="n">
         <v>33605.65329740899</v>
       </c>
-      <c r="O4" t="n">
-        <v>33605.65329740896</v>
-      </c>
       <c r="P4" t="n">
-        <v>33605.65329740901</v>
+        <v>33605.65329740898</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="G5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="G5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26500,7 +26500,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96472.31657955461</v>
+        <v>96472.31657955464</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26522,46 +26522,46 @@
         <v>-260920.3609834771</v>
       </c>
       <c r="C6" t="n">
-        <v>329047.5182310675</v>
+        <v>329047.5182310677</v>
       </c>
       <c r="D6" t="n">
-        <v>329047.5182310675</v>
+        <v>329047.5182310673</v>
       </c>
       <c r="E6" t="n">
-        <v>-266140.8335801847</v>
+        <v>-266208.0290704102</v>
       </c>
       <c r="F6" t="n">
-        <v>461236.5804132221</v>
+        <v>461169.3849229959</v>
       </c>
       <c r="G6" t="n">
-        <v>461236.5804132221</v>
+        <v>461169.3849229965</v>
       </c>
       <c r="H6" t="n">
-        <v>461236.580413222</v>
+        <v>461169.384922996</v>
       </c>
       <c r="I6" t="n">
-        <v>461236.580413222</v>
+        <v>461169.3849229963</v>
       </c>
       <c r="J6" t="n">
-        <v>284813.3612206292</v>
+        <v>284746.1657304033</v>
       </c>
       <c r="K6" t="n">
-        <v>461236.5804132222</v>
+        <v>461169.3849229964</v>
       </c>
       <c r="L6" t="n">
-        <v>461236.5804132223</v>
+        <v>461169.3849229962</v>
       </c>
       <c r="M6" t="n">
-        <v>330751.0686855763</v>
+        <v>330685.3841136151</v>
       </c>
       <c r="N6" t="n">
-        <v>424581.8537759443</v>
+        <v>424581.8537759447</v>
       </c>
       <c r="O6" t="n">
         <v>461316.9588400942</v>
       </c>
       <c r="P6" t="n">
-        <v>461316.9588400941</v>
+        <v>461316.9588400942</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405425</v>
+        <v>1.05625528840567</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="3">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405425</v>
+        <v>1.05625528840567</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018715</v>
+        <v>45.91888133018687</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,25 +26978,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>261.8982576182243</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>73.2471327988</v>
       </c>
       <c r="I4" t="n">
-        <v>128.0571403890127</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>23.75498498155849</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>23.40637174213623</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>110.4879679316811</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>28.3132597717979</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>393.7163208359958</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>242.9833393878095</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>107.5829646831824</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>272.0395466913662</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.030286966852145e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.05625528840567</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.05625528840567</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.05625528840567</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.05625528840567</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.05625528840567</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.05625528840567</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.05625528840567</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.05625528840567</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.05625528840567</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.05625528840567</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.05625528840567</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.05625528840567</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.05625528840567</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.05625528840567</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.05625528840567</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.05625528840567</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.05625528840567</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.05625528840567</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.05625528840567</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.05625528840567</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.05625528840567</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.05625528840567</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.05625528840567</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405425</v>
+        <v>1.05625528840567</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33041,7 +33041,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
@@ -33515,10 +33515,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33971,13 +33971,13 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233474</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34939,7 +34939,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060965</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35252,10 +35252,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>847.374090759439</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
         <v>347.6333793934838</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>622.8535937236333</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>854.0890375411587</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,16 +35884,16 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
         <v>508.0530008882191</v>
@@ -35902,10 +35902,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>119.6321473891437</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>388.0405586785763</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200623</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306618</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.85694616754</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>258.3236387357551</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36364,7 +36364,7 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>989.6487598248956</v>
@@ -36373,13 +36373,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>600.1169715202503</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306618</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36525,10 +36525,10 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.85694616754</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
@@ -36598,25 +36598,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>972.5852322533834</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306618</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M28" t="n">
         <v>347.6333793934838</v>
@@ -36765,7 +36765,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
@@ -36844,7 +36844,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36853,7 +36853,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306618</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,7 +37002,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
@@ -37069,22 +37069,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>674.559681258123</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
@@ -37163,10 +37163,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>687.7026107684298</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147165</v>
+        <v>46.63467190147189</v>
       </c>
       <c r="K37" t="n">
-        <v>207.103914832725</v>
+        <v>207.1039148327253</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586035</v>
+        <v>320.8136274586038</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818893</v>
+        <v>348.6896346818895</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559455</v>
+        <v>345.9132014559457</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110452</v>
+        <v>303.4093855110455</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335159</v>
+        <v>236.0133264335161</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629905</v>
+        <v>79.45049382629932</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013291</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M40" t="n">
         <v>394.6085160120763</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>519.8757797192576</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359043</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -37953,7 +37953,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>648.2134880573209</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
@@ -38190,7 +38190,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
